--- a/files/separadas/repeat_p35.xlsx
+++ b/files/separadas/repeat_p35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="181">
   <si>
     <t>p35_cod</t>
   </si>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>https://www.serviciocivil.gov.co/participacion</t>
@@ -943,13 +931,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,31 +983,19 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1028,39 +1004,27 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J2" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M2" t="s">
-        <v>183</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -1069,39 +1033,27 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J3" s="3">
         <v>45027.65930555556</v>
       </c>
       <c r="M3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1110,39 +1062,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M4" t="s">
-        <v>183</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -1151,39 +1091,27 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J5" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M5" t="s">
-        <v>183</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -1192,39 +1120,27 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J6" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M6" t="s">
-        <v>183</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1233,39 +1149,27 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1274,39 +1178,27 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M8" t="s">
-        <v>183</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1315,39 +1207,27 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M9" t="s">
-        <v>183</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -1356,39 +1236,27 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J10" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M10" t="s">
-        <v>183</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -1397,39 +1265,27 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J11" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M11" t="s">
-        <v>183</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -1438,39 +1294,27 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M12" t="s">
-        <v>184</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G13">
         <v>15</v>
@@ -1479,39 +1323,27 @@
         <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J13" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M13" t="s">
-        <v>184</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1520,39 +1352,27 @@
         <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J14" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M14" t="s">
-        <v>183</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G15">
         <v>17</v>
@@ -1561,39 +1381,27 @@
         <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J15" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G16">
         <v>18</v>
@@ -1602,39 +1410,27 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J16" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M16" t="s">
-        <v>183</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G17">
         <v>19</v>
@@ -1643,39 +1439,27 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J17" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M17" t="s">
-        <v>183</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G18">
         <v>19</v>
@@ -1684,39 +1468,27 @@
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J18" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M18" t="s">
-        <v>183</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G19">
         <v>21</v>
@@ -1725,39 +1497,27 @@
         <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J19" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M19" t="s">
-        <v>183</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G20">
         <v>22</v>
@@ -1766,39 +1526,27 @@
         <v>37</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J20" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M20" t="s">
-        <v>183</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -1807,39 +1555,27 @@
         <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J21" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M21" t="s">
-        <v>183</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G22">
         <v>23</v>
@@ -1848,39 +1584,27 @@
         <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J22" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M22" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1889,39 +1613,27 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>183</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1930,39 +1642,27 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>183</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G25">
         <v>24</v>
@@ -1971,39 +1671,27 @@
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J25" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M25" t="s">
-        <v>184</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G26">
         <v>24</v>
@@ -2012,39 +1700,27 @@
         <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J26" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M26" t="s">
-        <v>184</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -2053,39 +1729,27 @@
         <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J27" s="3">
         <v>45033.79946759259</v>
       </c>
       <c r="M27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G28">
         <v>26</v>
@@ -2094,39 +1758,27 @@
         <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J28" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M28" t="s">
-        <v>183</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G29">
         <v>27</v>
@@ -2135,39 +1787,27 @@
         <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J29" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M29" t="s">
-        <v>183</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G30">
         <v>27</v>
@@ -2176,39 +1816,27 @@
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J30" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M30" t="s">
-        <v>183</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G31">
         <v>28</v>
@@ -2217,39 +1845,27 @@
         <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J31" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M31" t="s">
-        <v>183</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G32">
         <v>29</v>
@@ -2258,39 +1874,27 @@
         <v>58</v>
       </c>
       <c r="I32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J32" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M32" t="s">
-        <v>183</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G33">
         <v>30</v>
@@ -2299,39 +1903,27 @@
         <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J33" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M33" t="s">
-        <v>183</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G34">
         <v>30</v>
@@ -2340,39 +1932,27 @@
         <v>59</v>
       </c>
       <c r="I34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J34" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M34" t="s">
-        <v>183</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G35">
         <v>31</v>
@@ -2381,39 +1961,27 @@
         <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J35" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M35" t="s">
-        <v>183</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G36">
         <v>31</v>
@@ -2422,39 +1990,27 @@
         <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J36" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M36" t="s">
-        <v>183</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G37">
         <v>32</v>
@@ -2463,39 +2019,27 @@
         <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J37" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M37" t="s">
-        <v>183</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G38">
         <v>33</v>
@@ -2504,39 +2048,27 @@
         <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J38" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M38" t="s">
-        <v>183</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G39">
         <v>33</v>
@@ -2545,39 +2077,27 @@
         <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J39" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M39" t="s">
-        <v>183</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G40">
         <v>34</v>
@@ -2586,39 +2106,27 @@
         <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J40" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M40" t="s">
-        <v>183</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G41">
         <v>37</v>
@@ -2627,39 +2135,27 @@
         <v>78</v>
       </c>
       <c r="I41" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J41" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M41" t="s">
-        <v>183</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G42">
         <v>39</v>
@@ -2668,39 +2164,27 @@
         <v>81</v>
       </c>
       <c r="I42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J42" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M42" t="s">
-        <v>183</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G43">
         <v>42</v>
@@ -2709,39 +2193,27 @@
         <v>84</v>
       </c>
       <c r="I43" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J43" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M43" t="s">
-        <v>183</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G44">
         <v>44</v>
@@ -2750,39 +2222,27 @@
         <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J44" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M44" t="s">
-        <v>183</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G45">
         <v>45</v>
@@ -2791,39 +2251,27 @@
         <v>88</v>
       </c>
       <c r="I45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J45" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M45" t="s">
-        <v>184</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G46">
         <v>45</v>
@@ -2832,39 +2280,27 @@
         <v>88</v>
       </c>
       <c r="I46" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J46" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M46" t="s">
-        <v>184</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G47">
         <v>45</v>
@@ -2873,39 +2309,27 @@
         <v>88</v>
       </c>
       <c r="I47" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J47" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M47" t="s">
-        <v>184</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G48">
         <v>45</v>
@@ -2914,39 +2338,27 @@
         <v>88</v>
       </c>
       <c r="I48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J48" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M48" t="s">
-        <v>184</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G49">
         <v>46</v>
@@ -2955,39 +2367,27 @@
         <v>90</v>
       </c>
       <c r="I49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J49" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M49" t="s">
-        <v>183</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G50">
         <v>46</v>
@@ -2996,39 +2396,27 @@
         <v>90</v>
       </c>
       <c r="I50" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J50" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M50" t="s">
-        <v>183</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G51">
         <v>49</v>
@@ -3037,39 +2425,27 @@
         <v>93</v>
       </c>
       <c r="I51" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J51" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M51" t="s">
-        <v>183</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G52">
         <v>50</v>
@@ -3078,39 +2454,27 @@
         <v>94</v>
       </c>
       <c r="I52" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J52" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M52" t="s">
-        <v>183</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G53">
         <v>50</v>
@@ -3119,39 +2483,27 @@
         <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J53" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M53" t="s">
-        <v>183</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G54">
         <v>51</v>
@@ -3160,39 +2512,27 @@
         <v>95</v>
       </c>
       <c r="I54" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J54" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M54" t="s">
-        <v>183</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G55">
         <v>53</v>
@@ -3201,39 +2541,27 @@
         <v>98</v>
       </c>
       <c r="I55" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J55" s="3">
         <v>45044.94196759259</v>
       </c>
       <c r="M55" t="s">
-        <v>184</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G56">
         <v>54</v>
@@ -3242,39 +2570,27 @@
         <v>99</v>
       </c>
       <c r="I56" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J56" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M56" t="s">
-        <v>183</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G57">
         <v>57</v>
@@ -3283,39 +2599,27 @@
         <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J57" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M57" t="s">
-        <v>183</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G58">
         <v>59</v>
@@ -3324,39 +2628,27 @@
         <v>104</v>
       </c>
       <c r="I58" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J58" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M58" t="s">
-        <v>183</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G59">
         <v>60</v>
@@ -3365,39 +2657,27 @@
         <v>105</v>
       </c>
       <c r="I59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J59" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M59" t="s">
-        <v>183</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G60">
         <v>61</v>
@@ -3406,39 +2686,27 @@
         <v>106</v>
       </c>
       <c r="I60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J60" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M60" t="s">
-        <v>183</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G61">
         <v>65</v>
@@ -3447,39 +2715,27 @@
         <v>111</v>
       </c>
       <c r="I61" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J61" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M61" t="s">
-        <v>183</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G62">
         <v>68</v>
@@ -3488,39 +2744,27 @@
         <v>115</v>
       </c>
       <c r="I62" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J62" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M62" t="s">
-        <v>184</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G63">
         <v>71</v>
@@ -3529,39 +2773,27 @@
         <v>119</v>
       </c>
       <c r="I63" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J63" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M63" t="s">
-        <v>183</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G64">
         <v>71</v>
@@ -3570,39 +2802,27 @@
         <v>119</v>
       </c>
       <c r="I64" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J64" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M64" t="s">
-        <v>183</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G65">
         <v>71</v>
@@ -3611,39 +2831,27 @@
         <v>119</v>
       </c>
       <c r="I65" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J65" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M65" t="s">
-        <v>183</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G66">
         <v>71</v>
@@ -3652,39 +2860,27 @@
         <v>119</v>
       </c>
       <c r="I66" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J66" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M66" t="s">
-        <v>183</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G67">
         <v>71</v>
@@ -3693,39 +2889,27 @@
         <v>119</v>
       </c>
       <c r="I67" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J67" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M67" t="s">
-        <v>183</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G68">
         <v>71</v>
@@ -3734,25 +2918,13 @@
         <v>119</v>
       </c>
       <c r="I68" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J68" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M68" t="s">
-        <v>183</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p35.xlsx
+++ b/files/separadas/repeat_p35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="182">
   <si>
     <t>p35_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>https://www.serviciocivil.gov.co/participacion</t>
@@ -931,13 +934,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,19 +986,22 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1004,27 +1010,30 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J2" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -1033,27 +1042,30 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J3" s="3">
         <v>45027.65930555556</v>
       </c>
       <c r="M3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1062,27 +1074,30 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -1091,27 +1106,30 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J5" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -1120,27 +1138,30 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J6" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1149,27 +1170,30 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1178,27 +1202,30 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1207,27 +1234,30 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -1236,27 +1266,30 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J10" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -1265,27 +1298,30 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J11" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -1294,27 +1330,30 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>181</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G13">
         <v>15</v>
@@ -1323,27 +1362,30 @@
         <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J13" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>181</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1352,27 +1394,30 @@
         <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J14" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G15">
         <v>17</v>
@@ -1381,27 +1426,30 @@
         <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J15" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G16">
         <v>18</v>
@@ -1410,27 +1458,30 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J16" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G17">
         <v>19</v>
@@ -1439,27 +1490,30 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J17" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G18">
         <v>19</v>
@@ -1468,27 +1522,30 @@
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J18" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19">
         <v>21</v>
@@ -1497,27 +1554,30 @@
         <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J19" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20">
         <v>22</v>
@@ -1526,27 +1586,30 @@
         <v>37</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J20" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -1555,27 +1618,30 @@
         <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J21" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G22">
         <v>23</v>
@@ -1584,27 +1650,30 @@
         <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J22" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1613,27 +1682,30 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1642,27 +1714,30 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G25">
         <v>24</v>
@@ -1671,27 +1746,30 @@
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J25" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>181</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G26">
         <v>24</v>
@@ -1700,27 +1778,30 @@
         <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J26" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>181</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -1729,27 +1810,30 @@
         <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J27" s="3">
         <v>45033.79946759259</v>
       </c>
       <c r="M27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G28">
         <v>26</v>
@@ -1758,27 +1842,30 @@
         <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J28" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G29">
         <v>27</v>
@@ -1787,27 +1874,30 @@
         <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J29" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G30">
         <v>27</v>
@@ -1816,27 +1906,30 @@
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J30" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G31">
         <v>28</v>
@@ -1845,27 +1938,30 @@
         <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J31" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G32">
         <v>29</v>
@@ -1874,27 +1970,30 @@
         <v>58</v>
       </c>
       <c r="I32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J32" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G33">
         <v>30</v>
@@ -1903,27 +2002,30 @@
         <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J33" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G34">
         <v>30</v>
@@ -1932,27 +2034,30 @@
         <v>59</v>
       </c>
       <c r="I34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J34" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G35">
         <v>31</v>
@@ -1961,27 +2066,30 @@
         <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J35" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G36">
         <v>31</v>
@@ -1990,27 +2098,30 @@
         <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J36" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G37">
         <v>32</v>
@@ -2019,27 +2130,30 @@
         <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J37" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G38">
         <v>33</v>
@@ -2048,27 +2162,30 @@
         <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J38" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G39">
         <v>33</v>
@@ -2077,27 +2194,30 @@
         <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J39" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M39" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G40">
         <v>34</v>
@@ -2106,27 +2226,30 @@
         <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J40" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G41">
         <v>37</v>
@@ -2135,27 +2258,30 @@
         <v>78</v>
       </c>
       <c r="I41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J41" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G42">
         <v>39</v>
@@ -2164,27 +2290,30 @@
         <v>81</v>
       </c>
       <c r="I42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J42" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G43">
         <v>42</v>
@@ -2193,27 +2322,30 @@
         <v>84</v>
       </c>
       <c r="I43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J43" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G44">
         <v>44</v>
@@ -2222,27 +2354,30 @@
         <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J44" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M44" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G45">
         <v>45</v>
@@ -2251,27 +2386,30 @@
         <v>88</v>
       </c>
       <c r="I45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J45" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>181</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G46">
         <v>45</v>
@@ -2280,27 +2418,30 @@
         <v>88</v>
       </c>
       <c r="I46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J46" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>181</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G47">
         <v>45</v>
@@ -2309,27 +2450,30 @@
         <v>88</v>
       </c>
       <c r="I47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J47" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M47" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>181</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G48">
         <v>45</v>
@@ -2338,27 +2482,30 @@
         <v>88</v>
       </c>
       <c r="I48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J48" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>181</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G49">
         <v>46</v>
@@ -2367,27 +2514,30 @@
         <v>90</v>
       </c>
       <c r="I49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J49" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G50">
         <v>46</v>
@@ -2396,27 +2546,30 @@
         <v>90</v>
       </c>
       <c r="I50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J50" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G51">
         <v>49</v>
@@ -2425,27 +2578,30 @@
         <v>93</v>
       </c>
       <c r="I51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J51" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G52">
         <v>50</v>
@@ -2454,27 +2610,30 @@
         <v>94</v>
       </c>
       <c r="I52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J52" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G53">
         <v>50</v>
@@ -2483,27 +2642,30 @@
         <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J53" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M53" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G54">
         <v>51</v>
@@ -2512,27 +2674,30 @@
         <v>95</v>
       </c>
       <c r="I54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J54" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M54" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G55">
         <v>53</v>
@@ -2541,27 +2706,30 @@
         <v>98</v>
       </c>
       <c r="I55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J55" s="3">
         <v>45044.94196759259</v>
       </c>
       <c r="M55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>181</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G56">
         <v>54</v>
@@ -2570,27 +2738,30 @@
         <v>99</v>
       </c>
       <c r="I56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J56" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M56" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G57">
         <v>57</v>
@@ -2599,27 +2770,30 @@
         <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J57" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M57" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G58">
         <v>59</v>
@@ -2628,27 +2802,30 @@
         <v>104</v>
       </c>
       <c r="I58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J58" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M58" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G59">
         <v>60</v>
@@ -2657,27 +2834,30 @@
         <v>105</v>
       </c>
       <c r="I59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J59" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M59" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G60">
         <v>61</v>
@@ -2686,27 +2866,30 @@
         <v>106</v>
       </c>
       <c r="I60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J60" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G61">
         <v>65</v>
@@ -2715,27 +2898,30 @@
         <v>111</v>
       </c>
       <c r="I61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J61" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G62">
         <v>68</v>
@@ -2744,27 +2930,30 @@
         <v>115</v>
       </c>
       <c r="I62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J62" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M62" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>181</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G63">
         <v>71</v>
@@ -2773,27 +2962,30 @@
         <v>119</v>
       </c>
       <c r="I63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J63" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M63" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G64">
         <v>71</v>
@@ -2802,27 +2994,30 @@
         <v>119</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J64" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M64" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G65">
         <v>71</v>
@@ -2831,27 +3026,30 @@
         <v>119</v>
       </c>
       <c r="I65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J65" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M65" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G66">
         <v>71</v>
@@ -2860,27 +3058,30 @@
         <v>119</v>
       </c>
       <c r="I66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J66" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M66" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G67">
         <v>71</v>
@@ -2889,27 +3090,30 @@
         <v>119</v>
       </c>
       <c r="I67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J67" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G68">
         <v>71</v>
@@ -2918,13 +3122,16 @@
         <v>119</v>
       </c>
       <c r="I68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J68" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M68" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p35.xlsx
+++ b/files/separadas/repeat_p35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="183">
   <si>
     <t>p35_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -934,13 +937,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,19 +992,22 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1010,30 +1016,33 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J2" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -1042,30 +1051,33 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J3" s="3">
         <v>45027.65930555556</v>
       </c>
       <c r="M3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1074,30 +1086,33 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -1106,30 +1121,33 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J5" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -1138,30 +1156,33 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J6" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1170,30 +1191,33 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1202,30 +1226,33 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1234,30 +1261,33 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -1266,30 +1296,33 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J10" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -1298,30 +1331,33 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J11" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -1330,30 +1366,33 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G13">
         <v>15</v>
@@ -1362,30 +1401,33 @@
         <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J13" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1394,30 +1436,33 @@
         <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J14" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G15">
         <v>17</v>
@@ -1426,30 +1471,33 @@
         <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J15" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G16">
         <v>18</v>
@@ -1458,30 +1506,33 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J16" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G17">
         <v>19</v>
@@ -1490,30 +1541,33 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J17" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G18">
         <v>19</v>
@@ -1522,30 +1576,33 @@
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J18" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G19">
         <v>21</v>
@@ -1554,30 +1611,33 @@
         <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J19" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20">
         <v>22</v>
@@ -1586,30 +1646,33 @@
         <v>37</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J20" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -1618,30 +1681,33 @@
         <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J21" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G22">
         <v>23</v>
@@ -1650,30 +1716,33 @@
         <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J22" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1682,30 +1751,33 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1714,30 +1786,33 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G25">
         <v>24</v>
@@ -1746,30 +1821,33 @@
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J25" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G26">
         <v>24</v>
@@ -1778,30 +1856,33 @@
         <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J26" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -1810,30 +1891,33 @@
         <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J27" s="3">
         <v>45033.79946759259</v>
       </c>
       <c r="M27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G28">
         <v>26</v>
@@ -1842,30 +1926,33 @@
         <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J28" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G29">
         <v>27</v>
@@ -1874,30 +1961,33 @@
         <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J29" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G30">
         <v>27</v>
@@ -1906,30 +1996,33 @@
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J30" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G31">
         <v>28</v>
@@ -1938,30 +2031,33 @@
         <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J31" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G32">
         <v>29</v>
@@ -1970,30 +2066,33 @@
         <v>58</v>
       </c>
       <c r="I32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J32" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G33">
         <v>30</v>
@@ -2002,30 +2101,33 @@
         <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J33" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G34">
         <v>30</v>
@@ -2034,30 +2136,33 @@
         <v>59</v>
       </c>
       <c r="I34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J34" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G35">
         <v>31</v>
@@ -2066,30 +2171,33 @@
         <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J35" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G36">
         <v>31</v>
@@ -2098,30 +2206,33 @@
         <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J36" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G37">
         <v>32</v>
@@ -2130,30 +2241,33 @@
         <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J37" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G38">
         <v>33</v>
@@ -2162,30 +2276,33 @@
         <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J38" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G39">
         <v>33</v>
@@ -2194,30 +2311,33 @@
         <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J39" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G40">
         <v>34</v>
@@ -2226,30 +2346,33 @@
         <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J40" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G41">
         <v>37</v>
@@ -2258,30 +2381,33 @@
         <v>78</v>
       </c>
       <c r="I41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J41" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G42">
         <v>39</v>
@@ -2290,30 +2416,33 @@
         <v>81</v>
       </c>
       <c r="I42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J42" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G43">
         <v>42</v>
@@ -2322,30 +2451,33 @@
         <v>84</v>
       </c>
       <c r="I43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J43" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G44">
         <v>44</v>
@@ -2354,30 +2486,33 @@
         <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J44" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G45">
         <v>45</v>
@@ -2386,30 +2521,33 @@
         <v>88</v>
       </c>
       <c r="I45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J45" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G46">
         <v>45</v>
@@ -2418,30 +2556,33 @@
         <v>88</v>
       </c>
       <c r="I46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J46" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G47">
         <v>45</v>
@@ -2450,30 +2591,33 @@
         <v>88</v>
       </c>
       <c r="I47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J47" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G48">
         <v>45</v>
@@ -2482,30 +2626,33 @@
         <v>88</v>
       </c>
       <c r="I48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J48" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G49">
         <v>46</v>
@@ -2514,30 +2661,33 @@
         <v>90</v>
       </c>
       <c r="I49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J49" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G50">
         <v>46</v>
@@ -2546,30 +2696,33 @@
         <v>90</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J50" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G51">
         <v>49</v>
@@ -2578,30 +2731,33 @@
         <v>93</v>
       </c>
       <c r="I51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J51" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G52">
         <v>50</v>
@@ -2610,30 +2766,33 @@
         <v>94</v>
       </c>
       <c r="I52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J52" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G53">
         <v>50</v>
@@ -2642,30 +2801,33 @@
         <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J53" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G54">
         <v>51</v>
@@ -2674,30 +2836,33 @@
         <v>95</v>
       </c>
       <c r="I54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J54" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G55">
         <v>53</v>
@@ -2706,30 +2871,33 @@
         <v>98</v>
       </c>
       <c r="I55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J55" s="3">
         <v>45044.94196759259</v>
       </c>
       <c r="M55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G56">
         <v>54</v>
@@ -2738,30 +2906,33 @@
         <v>99</v>
       </c>
       <c r="I56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J56" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G57">
         <v>57</v>
@@ -2770,30 +2941,33 @@
         <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J57" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G58">
         <v>59</v>
@@ -2802,30 +2976,33 @@
         <v>104</v>
       </c>
       <c r="I58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J58" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G59">
         <v>60</v>
@@ -2834,30 +3011,33 @@
         <v>105</v>
       </c>
       <c r="I59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J59" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G60">
         <v>61</v>
@@ -2866,30 +3046,33 @@
         <v>106</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J60" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G61">
         <v>64</v>
@@ -2898,30 +3081,33 @@
         <v>111</v>
       </c>
       <c r="I61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J61" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G62">
         <v>67</v>
@@ -2930,30 +3116,33 @@
         <v>115</v>
       </c>
       <c r="I62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J62" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G63">
         <v>70</v>
@@ -2962,30 +3151,33 @@
         <v>119</v>
       </c>
       <c r="I63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J63" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G64">
         <v>70</v>
@@ -2994,30 +3186,33 @@
         <v>119</v>
       </c>
       <c r="I64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J64" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G65">
         <v>70</v>
@@ -3026,30 +3221,33 @@
         <v>119</v>
       </c>
       <c r="I65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J65" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G66">
         <v>70</v>
@@ -3058,30 +3256,33 @@
         <v>119</v>
       </c>
       <c r="I66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J66" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G67">
         <v>70</v>
@@ -3090,30 +3291,33 @@
         <v>119</v>
       </c>
       <c r="I67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J67" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G68">
         <v>70</v>
@@ -3122,15 +3326,18 @@
         <v>119</v>
       </c>
       <c r="I68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J68" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p35.xlsx
+++ b/files/separadas/repeat_p35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="184">
   <si>
     <t>p35_cod</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -937,13 +940,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,19 +998,22 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1016,13 +1022,13 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J2" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1030,19 +1036,22 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -1051,13 +1060,13 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J3" s="3">
         <v>45027.65930555556</v>
       </c>
       <c r="M3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1065,19 +1074,22 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1086,13 +1098,13 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1100,19 +1112,22 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -1121,13 +1136,13 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J5" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1135,19 +1150,22 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -1156,13 +1174,13 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J6" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1170,19 +1188,22 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1191,13 +1212,13 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1205,19 +1226,22 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1226,13 +1250,13 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1240,19 +1264,22 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1261,13 +1288,13 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1275,19 +1302,22 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -1296,13 +1326,13 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J10" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1310,19 +1340,22 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -1331,13 +1364,13 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J11" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1345,19 +1378,22 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -1366,13 +1402,13 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1380,19 +1416,22 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G13">
         <v>15</v>
@@ -1401,13 +1440,13 @@
         <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J13" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1415,19 +1454,22 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1436,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J14" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1450,19 +1492,22 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G15">
         <v>17</v>
@@ -1471,13 +1516,13 @@
         <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J15" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1485,19 +1530,22 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G16">
         <v>18</v>
@@ -1506,13 +1554,13 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J16" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1520,19 +1568,22 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G17">
         <v>19</v>
@@ -1541,13 +1592,13 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J17" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1555,19 +1606,22 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G18">
         <v>19</v>
@@ -1576,13 +1630,13 @@
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J18" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1590,19 +1644,22 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G19">
         <v>21</v>
@@ -1611,13 +1668,13 @@
         <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J19" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1625,19 +1682,22 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20">
         <v>22</v>
@@ -1646,13 +1706,13 @@
         <v>37</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J20" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1660,19 +1720,22 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -1681,13 +1744,13 @@
         <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J21" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1695,19 +1758,22 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G22">
         <v>23</v>
@@ -1716,13 +1782,13 @@
         <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J22" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1730,19 +1796,22 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1751,13 +1820,13 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1765,19 +1834,22 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1786,13 +1858,13 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1800,19 +1872,22 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G25">
         <v>24</v>
@@ -1821,13 +1896,13 @@
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J25" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1835,19 +1910,22 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G26">
         <v>24</v>
@@ -1856,13 +1934,13 @@
         <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J26" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1870,19 +1948,22 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -1891,13 +1972,13 @@
         <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J27" s="3">
         <v>45033.79946759259</v>
       </c>
       <c r="M27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -1905,19 +1986,22 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G28">
         <v>26</v>
@@ -1926,13 +2010,13 @@
         <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J28" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -1940,19 +2024,22 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G29">
         <v>27</v>
@@ -1961,13 +2048,13 @@
         <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J29" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -1975,19 +2062,22 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G30">
         <v>27</v>
@@ -1996,13 +2086,13 @@
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J30" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2010,19 +2100,22 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G31">
         <v>28</v>
@@ -2031,13 +2124,13 @@
         <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J31" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2045,19 +2138,22 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G32">
         <v>29</v>
@@ -2066,13 +2162,13 @@
         <v>58</v>
       </c>
       <c r="I32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J32" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2080,19 +2176,22 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G33">
         <v>30</v>
@@ -2101,13 +2200,13 @@
         <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J33" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2115,19 +2214,22 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G34">
         <v>30</v>
@@ -2136,13 +2238,13 @@
         <v>59</v>
       </c>
       <c r="I34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J34" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2150,19 +2252,22 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G35">
         <v>31</v>
@@ -2171,13 +2276,13 @@
         <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J35" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2185,19 +2290,22 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G36">
         <v>31</v>
@@ -2206,13 +2314,13 @@
         <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J36" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2220,19 +2328,22 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G37">
         <v>32</v>
@@ -2241,13 +2352,13 @@
         <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J37" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2255,19 +2366,22 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G38">
         <v>33</v>
@@ -2276,13 +2390,13 @@
         <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J38" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2290,19 +2404,22 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G39">
         <v>33</v>
@@ -2311,13 +2428,13 @@
         <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J39" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2325,19 +2442,22 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G40">
         <v>34</v>
@@ -2346,13 +2466,13 @@
         <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J40" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2360,19 +2480,22 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G41">
         <v>37</v>
@@ -2381,13 +2504,13 @@
         <v>78</v>
       </c>
       <c r="I41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J41" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2395,19 +2518,22 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G42">
         <v>39</v>
@@ -2416,13 +2542,13 @@
         <v>81</v>
       </c>
       <c r="I42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J42" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -2430,19 +2556,22 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G43">
         <v>42</v>
@@ -2451,13 +2580,13 @@
         <v>84</v>
       </c>
       <c r="I43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J43" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -2465,19 +2594,22 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G44">
         <v>44</v>
@@ -2486,13 +2618,13 @@
         <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J44" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -2500,19 +2632,22 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G45">
         <v>45</v>
@@ -2521,13 +2656,13 @@
         <v>88</v>
       </c>
       <c r="I45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J45" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2535,19 +2670,22 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G46">
         <v>45</v>
@@ -2556,13 +2694,13 @@
         <v>88</v>
       </c>
       <c r="I46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J46" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2570,19 +2708,22 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>45</v>
@@ -2591,13 +2732,13 @@
         <v>88</v>
       </c>
       <c r="I47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J47" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2605,19 +2746,22 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G48">
         <v>45</v>
@@ -2626,13 +2770,13 @@
         <v>88</v>
       </c>
       <c r="I48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J48" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -2640,19 +2784,22 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G49">
         <v>46</v>
@@ -2661,13 +2808,13 @@
         <v>90</v>
       </c>
       <c r="I49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J49" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -2675,19 +2822,22 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G50">
         <v>46</v>
@@ -2696,13 +2846,13 @@
         <v>90</v>
       </c>
       <c r="I50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J50" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -2710,19 +2860,22 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G51">
         <v>49</v>
@@ -2731,13 +2884,13 @@
         <v>93</v>
       </c>
       <c r="I51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J51" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -2745,19 +2898,22 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G52">
         <v>50</v>
@@ -2766,13 +2922,13 @@
         <v>94</v>
       </c>
       <c r="I52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J52" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -2780,19 +2936,22 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G53">
         <v>50</v>
@@ -2801,13 +2960,13 @@
         <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J53" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -2815,19 +2974,22 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G54">
         <v>51</v>
@@ -2836,13 +2998,13 @@
         <v>95</v>
       </c>
       <c r="I54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J54" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -2850,19 +3012,22 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G55">
         <v>53</v>
@@ -2871,13 +3036,13 @@
         <v>98</v>
       </c>
       <c r="I55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J55" s="3">
         <v>45044.94196759259</v>
       </c>
       <c r="M55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -2885,19 +3050,22 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G56">
         <v>54</v>
@@ -2906,13 +3074,13 @@
         <v>99</v>
       </c>
       <c r="I56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J56" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -2920,19 +3088,22 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G57">
         <v>57</v>
@@ -2941,13 +3112,13 @@
         <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J57" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -2955,19 +3126,22 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G58">
         <v>59</v>
@@ -2976,13 +3150,13 @@
         <v>104</v>
       </c>
       <c r="I58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J58" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -2990,19 +3164,22 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G59">
         <v>60</v>
@@ -3011,13 +3188,13 @@
         <v>105</v>
       </c>
       <c r="I59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J59" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3025,19 +3202,22 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G60">
         <v>61</v>
@@ -3046,13 +3226,13 @@
         <v>106</v>
       </c>
       <c r="I60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J60" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3060,19 +3240,22 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G61">
         <v>64</v>
@@ -3081,13 +3264,13 @@
         <v>111</v>
       </c>
       <c r="I61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J61" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3095,19 +3278,22 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G62">
         <v>67</v>
@@ -3116,13 +3302,13 @@
         <v>115</v>
       </c>
       <c r="I62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J62" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3130,19 +3316,22 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G63">
         <v>70</v>
@@ -3151,13 +3340,13 @@
         <v>119</v>
       </c>
       <c r="I63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J63" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3165,19 +3354,22 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G64">
         <v>70</v>
@@ -3186,13 +3378,13 @@
         <v>119</v>
       </c>
       <c r="I64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J64" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3200,19 +3392,22 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G65">
         <v>70</v>
@@ -3221,13 +3416,13 @@
         <v>119</v>
       </c>
       <c r="I65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J65" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3235,19 +3430,22 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G66">
         <v>70</v>
@@ -3256,13 +3454,13 @@
         <v>119</v>
       </c>
       <c r="I66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J66" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3270,19 +3468,22 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G67">
         <v>70</v>
@@ -3291,13 +3492,13 @@
         <v>119</v>
       </c>
       <c r="I67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J67" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3305,19 +3506,22 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G68">
         <v>70</v>
@@ -3326,18 +3530,21 @@
         <v>119</v>
       </c>
       <c r="I68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J68" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p35.xlsx
+++ b/files/separadas/repeat_p35.xlsx
@@ -1492,13 +1492,13 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">

--- a/files/separadas/repeat_p35.xlsx
+++ b/files/separadas/repeat_p35.xlsx
@@ -574,13 +574,13 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">

--- a/files/separadas/repeat_p35.xlsx
+++ b/files/separadas/repeat_p35.xlsx
@@ -612,7 +612,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -1764,7 +1764,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28">
@@ -3156,7 +3156,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="57">
@@ -3252,7 +3252,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="59">
@@ -3348,7 +3348,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="61">
